--- a/TBEA/BusinessPerformance/Documentation/经营管控项目第二阶段/应收账款回款周报导入模板.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营管控项目第二阶段/应收账款回款周报导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>开始日期</t>
   </si>
@@ -46,6 +46,138 @@
   <si>
     <t>普华永道</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a23123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a23123124</t>
+  </si>
+  <si>
+    <t>a23123125</t>
+  </si>
+  <si>
+    <t>a23123126</t>
+  </si>
+  <si>
+    <t>a23123127</t>
+  </si>
+  <si>
+    <t>a23123128</t>
+  </si>
+  <si>
+    <t>a23123129</t>
+  </si>
+  <si>
+    <t>a23123130</t>
+  </si>
+  <si>
+    <t>a23123131</t>
+  </si>
+  <si>
+    <t>a23123132</t>
+  </si>
+  <si>
+    <t>a23123133</t>
+  </si>
+  <si>
+    <t>a23123134</t>
+  </si>
+  <si>
+    <t>a23123135</t>
+  </si>
+  <si>
+    <t>a23123136</t>
+  </si>
+  <si>
+    <t>a23123137</t>
+  </si>
+  <si>
+    <t>a23123138</t>
+  </si>
+  <si>
+    <t>a23123139</t>
+  </si>
+  <si>
+    <t>a23123140</t>
+  </si>
+  <si>
+    <t>a23123141</t>
+  </si>
+  <si>
+    <t>a23123142</t>
+  </si>
+  <si>
+    <t>a23123143</t>
+  </si>
+  <si>
+    <t>14month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15month</t>
+  </si>
+  <si>
+    <t>16month</t>
+  </si>
+  <si>
+    <t>17month</t>
+  </si>
+  <si>
+    <t>18month</t>
+  </si>
+  <si>
+    <t>19month</t>
+  </si>
+  <si>
+    <t>20month</t>
+  </si>
+  <si>
+    <t>21month</t>
+  </si>
+  <si>
+    <t>22month</t>
+  </si>
+  <si>
+    <t>23month</t>
+  </si>
+  <si>
+    <t>24month</t>
+  </si>
+  <si>
+    <t>25month</t>
+  </si>
+  <si>
+    <t>26month</t>
+  </si>
+  <si>
+    <t>27month</t>
+  </si>
+  <si>
+    <t>28month</t>
+  </si>
+  <si>
+    <t>29month</t>
+  </si>
+  <si>
+    <t>30month</t>
+  </si>
+  <si>
+    <t>31month</t>
+  </si>
+  <si>
+    <t>32month</t>
+  </si>
+  <si>
+    <t>33month</t>
+  </si>
+  <si>
+    <t>34month</t>
   </si>
 </sst>
 </file>
@@ -435,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,13 +575,14 @@
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,568 +590,634 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>42067</v>
       </c>
       <c r="B2" s="3">
         <v>42075</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G2">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>42067</v>
       </c>
       <c r="B3" s="3">
         <v>42075</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G3">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42068</v>
       </c>
       <c r="B4" s="3">
         <v>42076</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G4">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>42069</v>
       </c>
       <c r="B5" s="3">
         <v>42077</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G5">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>42070</v>
       </c>
       <c r="B6" s="3">
         <v>42078</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G6">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>42071</v>
       </c>
       <c r="B7" s="3">
         <v>42079</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G7">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>42072</v>
       </c>
       <c r="B8" s="3">
         <v>42080</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G8">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>42073</v>
       </c>
       <c r="B9" s="3">
         <v>42081</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G9">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>42074</v>
       </c>
       <c r="B10" s="3">
         <v>42082</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G10">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>42075</v>
       </c>
       <c r="B11" s="3">
         <v>42083</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G11">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>42076</v>
       </c>
       <c r="B12" s="3">
         <v>42084</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G12">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>42077</v>
       </c>
       <c r="B13" s="3">
         <v>42085</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G13">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>42078</v>
       </c>
       <c r="B14" s="3">
         <v>42086</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G14">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>42079</v>
       </c>
       <c r="B15" s="3">
         <v>42087</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G15">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>42080</v>
       </c>
       <c r="B16" s="3">
         <v>42088</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G16">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>42081</v>
       </c>
       <c r="B17" s="3">
         <v>42089</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G17">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>42082</v>
       </c>
       <c r="B18" s="3">
         <v>42090</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G18">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>42083</v>
       </c>
       <c r="B19" s="3">
         <v>42091</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G19">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>42084</v>
       </c>
       <c r="B20" s="3">
         <v>42092</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G20">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>42085</v>
       </c>
       <c r="B21" s="3">
         <v>42093</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G21">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>42086</v>
       </c>
       <c r="B22" s="3">
         <v>42094</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1234421</v>
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>322123.99800000002</v>
+        <v>1234421</v>
       </c>
       <c r="G22">
-        <v>32123.271000000001</v>
+        <v>322123.99800000002</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>32123.271000000001</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
